--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112256</v>
+        <v>515726.662165859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8088944.869226764</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312847</v>
+        <v>8722880.896883905</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760944</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="G5" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>44.47031485026612</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U6" t="n">
-        <v>6.731244536056346</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.21594625443442</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760945</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663198</v>
+        <v>102.592154304962</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663198</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.6104043214402</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>114.6099705295923</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663198</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663198</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>275.2325803593465</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.4297735342292</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>83.32727861849582</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>199.6929530070009</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>239.1293185150375</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>88.58584547962819</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.5495062926533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>138.1219706437577</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>199.6710892234291</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>203.5133085650809</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>238.3520711215968</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>10.35667420056756</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3504831369562</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>308.9203564757145</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>42.78734947750919</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>20.95866062610972</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>140.4615936850608</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.45803047044429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.8376584678375</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>257.2799420499495</v>
       </c>
       <c r="W29" t="n">
-        <v>272.2055943652853</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.28380354614087</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>378.4439893217077</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.2532214802697</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.2333827272359</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>174.2568275134125</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>29.25105537525267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>37.67709528776651</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>211.0785184722386</v>
+        <v>229.796569204138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>54.4580304704437</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>388.4660220592644</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>286.4654361897236</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>28.31233659742187</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>53.5473546737689</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>229.796569204138</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>219.1834685212301</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>141.1446905726948</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="D2" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158252</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158252</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4552,67 +4552,67 @@
         <v>371.26277863231</v>
       </c>
       <c r="E5" t="n">
-        <v>371.26277863231</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F5" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N5" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329.4357102594318</v>
+        <v>336.2349471645395</v>
       </c>
       <c r="C6" t="n">
-        <v>329.4357102594318</v>
+        <v>161.7819178834125</v>
       </c>
       <c r="D6" t="n">
-        <v>329.4357102594318</v>
+        <v>161.7819178834125</v>
       </c>
       <c r="E6" t="n">
-        <v>329.4357102594318</v>
+        <v>161.7819178834125</v>
       </c>
       <c r="F6" t="n">
-        <v>329.4357102594318</v>
+        <v>161.7819178834125</v>
       </c>
       <c r="G6" t="n">
-        <v>191.8965290818809</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H6" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264277</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S6" t="n">
-        <v>525.654732181024</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T6" t="n">
-        <v>336.2349471645392</v>
+        <v>336.2349471645395</v>
       </c>
       <c r="U6" t="n">
-        <v>329.4357102594318</v>
+        <v>336.2349471645395</v>
       </c>
       <c r="V6" t="n">
-        <v>329.4357102594318</v>
+        <v>336.2349471645395</v>
       </c>
       <c r="W6" t="n">
-        <v>329.4357102594318</v>
+        <v>336.2349471645395</v>
       </c>
       <c r="X6" t="n">
-        <v>329.4357102594318</v>
+        <v>336.2349471645395</v>
       </c>
       <c r="Y6" t="n">
-        <v>329.4357102594318</v>
+        <v>336.2349471645395</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
         <v>15.00204697330559</v>
@@ -4737,40 +4737,40 @@
         <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396333</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828985</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.8429936158253</v>
+        <v>429.723147379776</v>
       </c>
       <c r="C8" t="n">
-        <v>181.8429936158253</v>
+        <v>429.723147379776</v>
       </c>
       <c r="D8" t="n">
-        <v>181.8429936158253</v>
+        <v>429.723147379776</v>
       </c>
       <c r="E8" t="n">
-        <v>181.8429936158253</v>
+        <v>429.723147379776</v>
       </c>
       <c r="F8" t="n">
-        <v>181.8429936158253</v>
+        <v>429.723147379776</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158253</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058956</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652794</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652794</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652794</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652794</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>560.6825636487947</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>371.26277863231</v>
+        <v>1932.696732950903</v>
       </c>
       <c r="W8" t="n">
-        <v>181.8429936158253</v>
+        <v>1579.928077680789</v>
       </c>
       <c r="X8" t="n">
-        <v>181.8429936158253</v>
+        <v>1206.46231941971</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.8429936158253</v>
+        <v>816.3229874438978</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>204.9896429540876</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="C9" t="n">
-        <v>30.53661367296056</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="D9" t="n">
-        <v>30.53661367296056</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>30.53661367296056</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>30.53661367296056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140242</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546599</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476345</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017059</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652794</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652794</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652794</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652794</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652794</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487947</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W9" t="n">
-        <v>560.6825636487947</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X9" t="n">
-        <v>560.6825636487947</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y9" t="n">
-        <v>371.26277863231</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230172</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.9899398517071</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396325</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828974</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828974</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828974</v>
+        <v>298.0536847439799</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828974</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>1236.335336125843</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367745</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760994</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.38442316275</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>440.098254770655</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>440.098254770655</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>150.6810847336944</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1878.169188758595</v>
+        <v>1792.126722677734</v>
       </c>
       <c r="C14" t="n">
-        <v>1878.169188758595</v>
+        <v>1792.126722677734</v>
       </c>
       <c r="D14" t="n">
-        <v>1519.903490151844</v>
+        <v>1433.861024070984</v>
       </c>
       <c r="E14" t="n">
-        <v>1134.1152375536</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>723.1293327639926</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>308.056882608989</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995486</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734407</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758595</v>
+        <v>1792.126722677734</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>155.9927684318079</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>155.9927684318079</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>155.9927684318079</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>155.9927684318079</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>321.1966046380703</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218343</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218343</v>
+        <v>376.785347575338</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>376.785347575338</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>155.9927684318079</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2249.271807195287</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C17" t="n">
-        <v>1880.309290254875</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D17" t="n">
-        <v>1522.043591648125</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E17" t="n">
-        <v>1136.25533904988</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>725.2694342602729</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>310.1969841052693</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,22 +5515,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520489</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>3009.337405520489</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.871647259409</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y17" t="n">
-        <v>2635.871647259409</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5597,22 +5597,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218343</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T19" t="n">
-        <v>699.120390387711</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U19" t="n">
-        <v>410.0175235133546</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="V19" t="n">
-        <v>155.3330353074677</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W19" t="n">
-        <v>155.3330353074677</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X19" t="n">
-        <v>155.3330353074677</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.3330353074677</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.569348694473</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.606831754061</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D20" t="n">
-        <v>764.341133147311</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>764.341133147311</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>764.341133147311</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>349.2686829923074</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5752,52 +5752,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734407</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758595</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
@@ -5831,46 +5831,46 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.957356778932</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>2975.021173851025</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>2824.904534438689</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.991440856296</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>2676.991440856296</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>2676.991440856296</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y22" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694473</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.606831754061</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>764.341133147311</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>378.5528805490667</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265601</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995486</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734407</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758595</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.4564109463977</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C28" t="n">
-        <v>121.5202280184908</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>481.3531963688885</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>333.4401027864953</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>186.550155288585</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>186.550155288585</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6423,13 +6423,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X28" t="n">
-        <v>692.8974549201675</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y28" t="n">
-        <v>472.1048757766374</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.318139675982</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C29" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2749.458676177105</v>
       </c>
       <c r="W29" t="n">
-        <v>2466.057311715915</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X29" t="n">
-        <v>2466.057311715915</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.917979740103</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.4564109463977</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C31" t="n">
-        <v>290.4564109463977</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>290.4564109463977</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>791.9221008414108</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>502.8192339670544</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X31" t="n">
-        <v>692.8974549201675</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.1048757766374</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6733,19 +6733,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.8870058181849</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C34" t="n">
-        <v>920.8870058181849</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D34" t="n">
-        <v>770.7703664058491</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E34" t="n">
-        <v>622.857272823456</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>475.9673253255456</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.8870058181849</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1384.829779622645</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1015.867262682233</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>657.6015640754824</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E35" t="n">
-        <v>657.6015640754824</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F35" t="n">
-        <v>657.6015640754824</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G35" t="n">
-        <v>242.5291139204789</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="H35" t="n">
         <v>66.5121164321834</v>
@@ -6937,16 +6937,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6967,22 +6967,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.034709923658</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>2161.568951662578</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1771.429619686766</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2668.480289429514</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C37" t="n">
-        <v>2638.93376884845</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D37" t="n">
-        <v>2638.93376884845</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E37" t="n">
-        <v>2638.93376884845</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F37" t="n">
-        <v>2638.93376884845</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>3070.921333403283</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>3070.921333403283</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>3070.921333403283</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>2850.128754259753</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.569348694472</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.569348694472</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>1491.569348694472</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>1105.781096096227</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F38" t="n">
-        <v>694.7951913066199</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G38" t="n">
-        <v>279.7227411516164</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734405</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758593</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2695.175226737383</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>2526.239043809476</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.60582160917</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.60582160917</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X40" t="n">
-        <v>3097.616270711153</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y40" t="n">
-        <v>2876.823691567623</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.638712032431</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>1255.676195092019</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>1255.676195092019</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>869.8879424937752</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>458.9020377041676</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U41" t="n">
         <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539437</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269323</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008243</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.638712032431</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7493,22 +7493,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="C43" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="D43" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218343</v>
@@ -7569,52 +7569,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T43" t="n">
-        <v>699.120390387711</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U43" t="n">
-        <v>699.120390387711</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V43" t="n">
-        <v>699.120390387711</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="W43" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="X43" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="Y43" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763944</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926375</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030299</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7651,19 +7651,19 @@
         <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1477.112184968822</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497872</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>3304.435457340374</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U46" t="n">
-        <v>3015.332590466018</v>
+        <v>778.3166113003119</v>
       </c>
       <c r="V46" t="n">
-        <v>2760.648102260131</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
   </sheetData>
@@ -22552,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539636</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -22606,7 +22606,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473772903</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22649,7 +22649,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>30.23706061590659</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784826</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976603</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>177.7473046046877</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>241.7035085656169</v>
       </c>
       <c r="G5" t="n">
-        <v>373.3966131739383</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,7 +22843,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>91.69347451550921</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,10 +22916,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681384</v>
+        <v>7.884010625681412</v>
       </c>
       <c r="U6" t="n">
-        <v>219.1325238740346</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>115.0308748441934</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -23001,7 +23001,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301278</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871049</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>140.2266713038151</v>
+        <v>225.1601041651729</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510932</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.92277932842714</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>58.09852845872345</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.9045589040915</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846321</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310543</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>93.20510176849695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825419</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709389</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159727</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>66.22175214206376</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.5012613041341</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>142.3823767705413</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>182.2374170652609</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>55.47844587228292</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>56.83520254330305</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9994429835159337</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>216.5610709769253</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>94.93667516389135</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.89927049540586</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>48.6243347587471</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>56.25569326572364</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>375.881264455486</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>37.40453177736457</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97.95568926599697</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>343.4505891785444</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,16 +24417,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>198.5902886500595</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>242.2722479784198</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>222.7020862222428</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>94.15744254776807</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>25.91735644648324</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>70.47231642018539</v>
       </c>
       <c r="W29" t="n">
-        <v>77.03537435212769</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>70.1501591004283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>91.87369334916278</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>7.793949334345882</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>147.978455478377</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>120.3509368739079</v>
+        <v>64.8111951831838</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25207,16 +25207,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>137.9957657233752</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>83.52924591508182</v>
+        <v>64.81119518318249</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25450,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>158.8733195558276</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>94.15744254776865</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>22.45570359418906</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>62.77553252768939</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>118.1216260491473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>91.87369334916235</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493155</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292592</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>167.0544701348235</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.59028865006</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.0671476329181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061951</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238766</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238766</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312588.9285003121</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="I2" t="n">
+        <v>312588.9285003115</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="K2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="F2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="H2" t="n">
-        <v>312588.9285003118</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.9285003118</v>
-      </c>
-      <c r="J2" t="n">
-        <v>312588.928500312</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003115</v>
-      </c>
       <c r="M2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487661</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127026</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723339</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
+        <v>584.6469890061234</v>
+      </c>
+      <c r="G4" t="n">
         <v>584.6469890061232</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061231</v>
@@ -26453,10 +26453,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061232</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161356</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,10 +26505,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266547</v>
+        <v>-502366.9027456894</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941907</v>
+        <v>88989.99977515594</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941907</v>
+        <v>-219414.6903676095</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837554</v>
+        <v>-42406.8001951672</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717429</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717429</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.945571743</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717425</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.996221368</v>
+        <v>184559.0008431982</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499121</v>
+        <v>143880.5674404725</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203499</v>
+        <v>161532.5929556564</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499121</v>
+        <v>233623.9455717428</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129045</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593299</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663198</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26810,13 +26810,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,10 +26825,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803938</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953992</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34450,13 +34450,13 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837926</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781463</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646075</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061149</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520823</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400495</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004593</v>
